--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{990BB4B0-D444-40CD-BC1B-4615B9C38EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:40009_{990BB4B0-D444-40CD-BC1B-4615B9C38EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF16DCDA-EB14-4375-AC00-E6C676021059}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="126">
   <si>
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
@@ -190,27 +190,6 @@
   </si>
   <si>
     <t>F02</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">F02. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>cautarea filmelor care au un anumit regizor (sau parti din numele regizorului).</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">F02. Covered source code </t>
@@ -495,9 +474,6 @@
     <t>F02_TC04</t>
   </si>
   <si>
-    <t>returns incoming tasks from that period</t>
-  </si>
-  <si>
     <t>throws exception</t>
   </si>
   <si>
@@ -522,15 +498,9 @@
     <t>X</t>
   </si>
   <si>
-    <t>startDate = 20.05.2021          endDate = 30.05.2021</t>
-  </si>
-  <si>
     <t>returns empty list</t>
   </si>
   <si>
-    <t>startDate =27.01.2023    endDate =30.01.2023</t>
-  </si>
-  <si>
     <t>startDate = null          endDate = 31.01.2023</t>
   </si>
   <si>
@@ -567,15 +537,9 @@
     <t>30.01.2023</t>
   </si>
   <si>
-    <t>Error</t>
-  </si>
-  <si>
     <t>empty list</t>
   </si>
   <si>
-    <t>task list</t>
-  </si>
-  <si>
     <t>da</t>
   </si>
   <si>
@@ -604,31 +568,49 @@
   </si>
   <si>
     <t>1,2,4,5,6,7,8,9,12</t>
+  </si>
+  <si>
+    <t>F02.  Afisarea task-urilor planificate intr-o anumita perioada de timp;</t>
+  </si>
+  <si>
+    <t>different Error</t>
+  </si>
+  <si>
+    <t>RuntimeError</t>
+  </si>
+  <si>
+    <t>Cercetasii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">startDate = 20.05.2021          endDate = 30.05.2021          taskList = []  </t>
+  </si>
+  <si>
+    <t>startDate =27.01.2023    endDate =30.01.2023          taskList=[{"task1", 27.01.2023 12:00, 28.01.2023 12:00, 10}, {"task2", 27.01.2023 12:00, 29.01.2023 12:00, 10}, {"task3", 28.01.2023 12:00, 29.01.2023 12:00, 10}, "task4", 27.01.2021 12:00, 30.01.2021 12:00]</t>
+  </si>
+  <si>
+    <t>[{"task1", 27.01.2023 12:00, 28.01.2023 12:00, 10}, {"task2", 27.01.2023 12:00, 29.01.2023 12:00, 10}, {"task3", 28.01.2023 12:00, 29.01.2023 12:00, 10}]</t>
+  </si>
+  <si>
+    <t>taskList</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[{"task1", 27.01.2023 12:00, 28.01.2023 12:00, 10}, {"task2", 27.01.2023 12:00, 29.01.2023 12:00, 10}, {"task3", 28.01.2023 12:00, 29.01.2023 12:00, 10}, "task4", 27.01.2021 12:00, 30.01.2021 12:00]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="26" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -659,13 +641,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="8"/>
       <color indexed="8"/>
@@ -673,14 +648,6 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="8"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="8"/>
       <color indexed="8"/>
@@ -1364,328 +1331,315 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1796,6 +1750,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2118,40 +2076,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="8.90625" style="10"/>
-    <col min="15" max="15" width="19.6328125" style="10" customWidth="1"/>
-    <col min="16" max="16384" width="8.90625" style="10"/>
+    <col min="15" max="15" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B1" s="13"/>
-      <c r="D1" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="45"/>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B2" s="40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="D1" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>35</v>
@@ -2159,99 +2115,102 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" s="38"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="N5" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" t="s">
+        <v>119</v>
+      </c>
+      <c r="P5" s="30"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="P6" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="N6" s="23"/>
+      <c r="O6" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="N7" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="P7" s="27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="N7" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="N8" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="O8" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="P8" s="27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B9" s="10" t="s">
-        <v>73</v>
+      <c r="N8" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>72</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="N9" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="O9" s="27" t="s">
+      <c r="N9" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="P9" s="27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B10" s="10" t="s">
-        <v>75</v>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>74</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B11" s="37" t="s">
-        <v>74</v>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="32" t="s">
+        <v>73</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
     </row>
   </sheetData>
@@ -2264,397 +2223,389 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="72" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17:T17"/>
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="10"/>
-    <col min="2" max="2" width="10" style="10" customWidth="1"/>
-    <col min="3" max="16" width="8.90625" style="10"/>
-    <col min="17" max="17" width="10.6328125" style="10" customWidth="1"/>
-    <col min="18" max="19" width="8.90625" style="10"/>
-    <col min="20" max="20" width="25.90625" style="10" customWidth="1"/>
-    <col min="21" max="16384" width="8.90625" style="10"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" customWidth="1"/>
+    <col min="20" max="20" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B1" s="13"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="45"/>
-    </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C2" s="9"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B3" s="96" t="s">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="D1" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="I6" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="Q6" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="I8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="I9" s="33"/>
+      <c r="Q9" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="I10" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="54"/>
+      <c r="Q10" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="S10" s="61"/>
+      <c r="T10" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="57"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="57"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="57"/>
+      <c r="Q13" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="57"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I15" s="55"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="57"/>
+      <c r="Q15" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="R15" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I16" s="55"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="57"/>
+      <c r="Q16" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="R16" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+    </row>
+    <row r="17" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I17" s="55"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="57"/>
+      <c r="Q17" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="R17" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+    </row>
+    <row r="18" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I18" s="55"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="57"/>
+      <c r="Q18" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="R18" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+    </row>
+    <row r="19" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I19" s="55"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="57"/>
+      <c r="Q19" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B6" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="I6" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="Q6" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B8" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="I8" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q8" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B9" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="I9" s="39"/>
-      <c r="Q9" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B10" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="I10" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="53"/>
-      <c r="Q10" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="R10" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="S10" s="60"/>
-      <c r="T10" s="34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B11" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="56"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B12" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="56"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B13" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="56"/>
-      <c r="Q13" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B14" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="56"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="I15" s="54"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="56"/>
-      <c r="Q15" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="R15" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="S15" s="61"/>
-      <c r="T15" s="61"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="I16" s="54"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="56"/>
-      <c r="Q16" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="R16" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-    </row>
-    <row r="17" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I17" s="54"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="56"/>
-      <c r="Q17" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="R17" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="S17" s="46"/>
-      <c r="T17" s="46"/>
-    </row>
-    <row r="18" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I18" s="54"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="56"/>
-      <c r="Q18" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="R18" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-    </row>
-    <row r="19" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I19" s="54"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="56"/>
-      <c r="Q19" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="R19" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-    </row>
-    <row r="20" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I20" s="54"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="56"/>
-      <c r="Q20" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="R20" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-    </row>
-    <row r="21" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I21" s="54"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="56"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
-    </row>
-    <row r="22" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I22" s="54"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="56"/>
-    </row>
-    <row r="23" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I23" s="54"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="56"/>
-    </row>
-    <row r="24" spans="9:20" x14ac:dyDescent="0.35">
-      <c r="I24" s="57"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="59"/>
+      <c r="R19" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+    </row>
+    <row r="20" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I20" s="55"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="57"/>
+      <c r="Q20" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="R20" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+    </row>
+    <row r="21" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I21" s="55"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="57"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+    </row>
+    <row r="22" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I22" s="55"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="57"/>
+    </row>
+    <row r="23" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I23" s="55"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="57"/>
+    </row>
+    <row r="24" spans="9:20" x14ac:dyDescent="0.25">
+      <c r="I24" s="58"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="R18:T18"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="Q9:S9"/>
     <mergeCell ref="R16:T16"/>
@@ -2662,12 +2613,6 @@
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="Q13:T13"/>
     <mergeCell ref="C14:E14"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="R18:T18"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="R21:T21"/>
@@ -2678,6 +2623,12 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="R15:T15"/>
     <mergeCell ref="C8:E8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R19:T19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2686,68 +2637,57 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="10"/>
-    <col min="2" max="2" width="12.26953125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="7.08984375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="8.6328125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="6.90625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="8.26953125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="5.81640625" style="10" customWidth="1"/>
-    <col min="12" max="13" width="13.1796875" style="10" customWidth="1"/>
-    <col min="14" max="14" width="8.90625" style="10"/>
-    <col min="15" max="15" width="11.81640625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="8.90625" style="10"/>
-    <col min="17" max="17" width="11.81640625" style="10" customWidth="1"/>
-    <col min="18" max="20" width="8.90625" style="10"/>
-    <col min="21" max="21" width="9.08984375" style="10" customWidth="1"/>
-    <col min="22" max="22" width="8.90625" style="10"/>
-    <col min="23" max="23" width="11.453125" style="107" customWidth="1"/>
-    <col min="24" max="24" width="13.7265625" style="109" customWidth="1"/>
-    <col min="25" max="16384" width="8.90625" style="10"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" customWidth="1"/>
+    <col min="12" max="13" width="13.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" style="40" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B1" s="13"/>
-      <c r="D1" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="45"/>
-    </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B3" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B5" s="12"/>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="2:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="D1" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B3" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="64" t="s">
         <v>23</v>
       </c>
@@ -2780,350 +2720,344 @@
       <c r="W6" s="64"/>
       <c r="X6" s="64"/>
     </row>
-    <row r="7" spans="2:24" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="64"/>
       <c r="C7" s="64"/>
       <c r="D7" s="66"/>
-      <c r="E7" s="70" t="s">
+      <c r="E7" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="99" t="s">
+      <c r="F7" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="104" t="s">
-        <v>58</v>
-      </c>
-      <c r="S7" s="105"/>
-      <c r="T7" s="105"/>
-      <c r="U7" s="106"/>
-      <c r="V7" s="122"/>
-      <c r="W7" s="62" t="s">
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="S7" s="76"/>
+      <c r="T7" s="76"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="X7" s="62"/>
-    </row>
-    <row r="8" spans="2:24" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="X7" s="71"/>
+    </row>
+    <row r="8" spans="2:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="64"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="63" t="s">
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63" t="s">
+      <c r="M8" s="70"/>
+      <c r="N8" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63" t="s">
+      <c r="O8" s="70"/>
+      <c r="P8" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63" t="s">
+      <c r="Q8" s="70"/>
+      <c r="R8" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="S8" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="T8" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="U8" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="V8" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="W8" s="67">
+        <v>0</v>
+      </c>
+      <c r="X8" s="71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="64"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="71"/>
+    </row>
+    <row r="10" spans="2:24" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63" t="s">
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="X10" s="41"/>
+    </row>
+    <row r="11" spans="2:24" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="S8" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="T8" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="U8" s="67" t="s">
+      <c r="E11" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="U11" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="V11" s="16"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="V8" s="67" t="s">
-        <v>117</v>
-      </c>
-      <c r="W8" s="120">
-        <v>0</v>
-      </c>
-      <c r="X8" s="62" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="64"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P9" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q9" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="121"/>
-      <c r="X9" s="62"/>
-    </row>
-    <row r="10" spans="2:24" ht="94.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="108" t="s">
-        <v>93</v>
-      </c>
-      <c r="X10" s="108"/>
-    </row>
-    <row r="11" spans="2:24" ht="62" x14ac:dyDescent="0.35">
-      <c r="B11" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="C12" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="17" t="s">
+      <c r="D12" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="X12" s="41"/>
+    </row>
+    <row r="13" spans="2:24" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="T11" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="U11" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="V11" s="19"/>
-      <c r="W11" s="108"/>
-      <c r="X11" s="108" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="103" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="R12" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="108" t="s">
-        <v>93</v>
-      </c>
-      <c r="X12" s="108"/>
-    </row>
-    <row r="13" spans="2:24" ht="62" x14ac:dyDescent="0.35">
-      <c r="B13" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="N13" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="T13" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="U13" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="V13" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="W13" s="108"/>
-      <c r="X13" s="108" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="20"/>
-      <c r="C14" s="10"/>
+      <c r="D13" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="T13" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="U13" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="V13" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="F7:Q7"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="E7:E9"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="W8:W9"/>
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="S8:S9"/>
     <mergeCell ref="E6:X6"/>
     <mergeCell ref="U8:U9"/>
-    <mergeCell ref="D8:D9"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="X8:X9"/>
     <mergeCell ref="T8:T9"/>
@@ -3131,11 +3065,16 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="F7:Q7"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="V8:V9"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3143,309 +3082,311 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12:N12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.90625" style="10"/>
-    <col min="3" max="3" width="7.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="16.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7265625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="16.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.90625" style="10"/>
-    <col min="11" max="11" width="12.26953125" style="10" customWidth="1"/>
-    <col min="12" max="16384" width="8.90625" style="10"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B1" s="13"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B3" s="83" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="D1" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="84" t="s">
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="71" t="s">
+      <c r="F4" s="87"/>
+      <c r="G4" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="73"/>
-    </row>
-    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="85"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="77"/>
+      <c r="H4" s="85"/>
+    </row>
+    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="83"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="91"/>
       <c r="E5" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="21">
+    <row r="6" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="18">
         <v>9</v>
       </c>
       <c r="C6" s="86" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="21">
+        <v>45</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="18">
         <v>10</v>
       </c>
       <c r="C7" s="86"/>
       <c r="D7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="18">
+        <v>11</v>
+      </c>
+      <c r="C8" s="86"/>
+      <c r="D8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="18">
+        <v>12</v>
+      </c>
+      <c r="C9" s="86"/>
+      <c r="D9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="21">
-        <v>11</v>
-      </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="21">
-        <v>12</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G9" s="115" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="23"/>
-    </row>
-    <row r="12" spans="2:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="78" t="s">
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="80" t="s">
+      <c r="G12" s="112"/>
+      <c r="H12" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="81"/>
-      <c r="H12" s="78" t="s">
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="117" t="s">
+      <c r="N12" s="95"/>
+    </row>
+    <row r="13" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="N12" s="118"/>
-    </row>
-    <row r="13" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="110" t="s">
+      <c r="F13" s="101" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="115" t="s">
+      <c r="J13" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="115" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="116" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="112" t="s">
+      <c r="K13" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="111" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="110" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="115" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13" s="90" t="s">
+      <c r="M13" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="M13" s="92" t="s">
+      <c r="N13" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="N13" s="74" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="93"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="87"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="102"/>
       <c r="J14" s="93"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="91"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="114"/>
       <c r="M14" s="93"/>
-      <c r="N14" s="87"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="27">
+      <c r="N14" s="102"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="23">
         <f>SUM(C15:D15)</f>
         <v>4</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="21">
         <v>2</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="21">
         <v>2</v>
       </c>
-      <c r="E15" s="119">
-        <v>0.66</v>
-      </c>
-      <c r="F15" s="26">
+      <c r="E15" s="42">
         <v>1</v>
       </c>
+      <c r="F15" s="22">
+        <v>1</v>
+      </c>
       <c r="G15" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I15" s="27">
+        <v>106</v>
+      </c>
+      <c r="I15" s="23">
         <f>SUM(J15:K15)</f>
         <v>2</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="21">
         <v>2</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="24">
         <v>0</v>
       </c>
-      <c r="L15" s="29">
-        <v>66</v>
+      <c r="L15" s="43">
+        <v>1</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="N15" s="30">
+        <v>106</v>
+      </c>
+      <c r="N15" s="25">
         <f>C15</f>
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="F12:G12"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="M13:M14"/>
     <mergeCell ref="M12:N12"/>
@@ -3459,6 +3400,10 @@
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="N13:N14"/>
     <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="F12:G12"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:B5"/>
@@ -3468,7 +3413,7 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
   </mergeCells>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3709,6 +3654,8 @@
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="28a9ec7f-d5a2-44c1-9222-13672e632811"/>
+    <ds:schemaRef ds:uri="21ee7137-bb80-41af-bc2d-acc9f6fb3a85"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>